--- a/result/gr25_05_simulated/details.xlsx
+++ b/result/gr25_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2859430313110352</v>
+        <v>0.2176170349121094</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>76.12343496960239</v>
+        <v>74.54980530067041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003070918180908432</v>
+        <v>0.003124110796206647</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002404384646596896</v>
+        <v>0.002501771280629178</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002385895759185484</v>
+        <v>0.002371583497738418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002208076917052319</v>
+        <v>0.002190485478716327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002208076917052319</v>
+        <v>0.002190485478716327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001956461039524931</v>
+        <v>0.002082988396314586</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001956461039524931</v>
+        <v>0.002065289485462057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001873264704782275</v>
+        <v>0.002065289485462057</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001873264704782275</v>
+        <v>0.002065289485462057</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001873264704782275</v>
+        <v>0.001943652715824293</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001795470994578576</v>
+        <v>0.001943652715824293</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001765522400948424</v>
+        <v>0.001885223026931721</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001701644751503114</v>
+        <v>0.001773839022968643</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001640633505646538</v>
+        <v>0.001637779492893455</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001640633505646538</v>
+        <v>0.001615034114461364</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001586316470753413</v>
+        <v>0.001559535802326531</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001567925833669275</v>
+        <v>0.001530722176329056</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001547248968225133</v>
+        <v>0.001489872629669288</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001500256499982737</v>
+        <v>0.001476237711573956</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001483887621239812</v>
+        <v>0.001453212578960437</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3480103015899658</v>
+        <v>0.2034707069396973</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.918348358804</v>
+        <v>77.47709094679522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003015162211755899</v>
+        <v>0.003119161324487111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002505820119966986</v>
+        <v>0.002614634180354116</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002216827159177148</v>
+        <v>0.002207262044267145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002216827159177148</v>
+        <v>0.00215950341019966</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00202590733062465</v>
+        <v>0.002123073436809416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001948559476840863</v>
+        <v>0.001812903825000752</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001948559476840863</v>
+        <v>0.001812903825000752</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001757826511670588</v>
+        <v>0.001812903825000752</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001757826511670588</v>
+        <v>0.001812903825000752</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001751465015650647</v>
+        <v>0.001781644122554362</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001664324508666171</v>
+        <v>0.001759730198981889</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001664324508666171</v>
+        <v>0.001682123083133228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00160969359653548</v>
+        <v>0.001665349034886455</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001581791979959014</v>
+        <v>0.001630174913366858</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001581791979959014</v>
+        <v>0.001559890766084226</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001558094611176018</v>
+        <v>0.001559890766084226</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001551577606695569</v>
+        <v>0.001559890766084226</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001510843813575101</v>
+        <v>0.001540701445962988</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001493394374555062</v>
+        <v>0.001524158263710297</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001479889831555633</v>
+        <v>0.001510274677325443</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2920417785644531</v>
+        <v>0.2069470882415771</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.0651360166994</v>
+        <v>77.94497918227353</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003112456479390891</v>
+        <v>0.003154521551819769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002601227361651927</v>
+        <v>0.002546079571777659</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002346199080831589</v>
+        <v>0.002515459946799986</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002083072280216427</v>
+        <v>0.002277736284254095</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002083072280216427</v>
+        <v>0.002111207500557925</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001922725473391163</v>
+        <v>0.002111207500557925</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001922725473391163</v>
+        <v>0.002031484973807214</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001922725473391163</v>
+        <v>0.001923826695350917</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00190705199983648</v>
+        <v>0.001905164871156325</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00190705199983648</v>
+        <v>0.001880209174435409</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00190448425226382</v>
+        <v>0.001753232597861922</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001795475591569409</v>
+        <v>0.001753232597861922</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001655909660439895</v>
+        <v>0.001658618783071838</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001655909660439895</v>
+        <v>0.001624584513387974</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001627666432088116</v>
+        <v>0.001610028858849475</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001579812069510234</v>
+        <v>0.001610028858849475</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001552843893111598</v>
+        <v>0.001588022233833175</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001522061145772392</v>
+        <v>0.001530149233407194</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001502244366797259</v>
+        <v>0.001530149233407194</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001502244366797259</v>
+        <v>0.001519395305697339</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2770256996154785</v>
+        <v>0.2263250350952148</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78.29534773039995</v>
+        <v>75.54254521028088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002961666464632596</v>
+        <v>0.003055602095804392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002515234920577209</v>
+        <v>0.002548989490530578</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002515234920577209</v>
+        <v>0.002429329037792827</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00244483200986312</v>
+        <v>0.002134699443208073</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002143642915352668</v>
+        <v>0.001998537836782658</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002049716688104692</v>
+        <v>0.001998537836782658</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002049716688104692</v>
+        <v>0.001998537836782658</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002023045273115847</v>
+        <v>0.001693041315815505</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001893960718324498</v>
+        <v>0.001693041315815505</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001893960718324498</v>
+        <v>0.001693041315815505</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001855641049721357</v>
+        <v>0.001693041315815505</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001855641049721357</v>
+        <v>0.001670435300451888</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001742615477720767</v>
+        <v>0.001617809075837426</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001742615477720767</v>
+        <v>0.001617809075837426</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001665518613110612</v>
+        <v>0.001590715522267599</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001599158169158232</v>
+        <v>0.001556132530445237</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001584925023174694</v>
+        <v>0.001518729963093305</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001564075664697993</v>
+        <v>0.001517020222946816</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001535349495931696</v>
+        <v>0.00148429059636328</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001526225101957114</v>
+        <v>0.001472564234118535</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2418503761291504</v>
+        <v>0.1933751106262207</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>83.64437505580099</v>
+        <v>71.59786819917099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003008325046360051</v>
+        <v>0.003065921266638414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002534275502838066</v>
+        <v>0.002681937696558773</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002357105730769152</v>
+        <v>0.002418377080786641</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002180015428014575</v>
+        <v>0.002299187119463108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00202755793596622</v>
+        <v>0.002094839229990136</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001903754393818755</v>
+        <v>0.002094839229990136</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001903754393818755</v>
+        <v>0.001947447562156314</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001879389483489474</v>
+        <v>0.001947447562156314</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001854163911258745</v>
+        <v>0.001772963399753687</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001823467329805107</v>
+        <v>0.001634807895201869</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001823467329805107</v>
+        <v>0.001634807895201869</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001823467329805107</v>
+        <v>0.001634807895201869</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001823467329805107</v>
+        <v>0.00149951857504386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001766675698166432</v>
+        <v>0.00149951857504386</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001766675698166432</v>
+        <v>0.00149951857504386</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001660428014032906</v>
+        <v>0.00149951857504386</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001660428014032906</v>
+        <v>0.001487233277658041</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001660428014032906</v>
+        <v>0.001466875879081268</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001633308919764801</v>
+        <v>0.00141574826245791</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001630494640463957</v>
+        <v>0.001395669945402943</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239022970199585</v>
+        <v>0.2256424427032471</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.713579393685</v>
+        <v>80.14539883980251</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003154521551819769</v>
+        <v>0.00299220981746574</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002636996578077944</v>
+        <v>0.002656296134397694</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002515776967615394</v>
+        <v>0.002497502014548356</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002128965477990859</v>
+        <v>0.002326162035366549</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002054984536439556</v>
+        <v>0.002326162035366549</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001890139695976197</v>
+        <v>0.002118839845021518</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001890139695976197</v>
+        <v>0.002078752228266076</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001850858408659646</v>
+        <v>0.00205060481672188</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001841166215127428</v>
+        <v>0.001950412159824454</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001831435081683941</v>
+        <v>0.001856462944413412</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001758420041866226</v>
+        <v>0.001765420526254872</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001709995404329192</v>
+        <v>0.001765420526254872</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001698923188148407</v>
+        <v>0.001680878513559957</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001671867610276859</v>
+        <v>0.001680878513559957</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001671867610276859</v>
+        <v>0.001629120250346607</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001671478251625875</v>
+        <v>0.001609288559614116</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001649781190610854</v>
+        <v>0.001603098100308502</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001615587097843119</v>
+        <v>0.001585795928309295</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001576520094553713</v>
+        <v>0.001562288476409405</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001553870943346686</v>
+        <v>0.001562288476409405</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2126109600067139</v>
+        <v>0.1923003196716309</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>72.4605067391567</v>
+        <v>78.53660796625263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003145775284003079</v>
+        <v>0.003009124105867431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002441268119325603</v>
+        <v>0.002388540814134716</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00235946638323729</v>
+        <v>0.002388540814134716</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002268706892054074</v>
+        <v>0.002173010236696299</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002064619473555553</v>
+        <v>0.002137537169354132</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001903773491773398</v>
+        <v>0.002056321753901316</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001840418733861962</v>
+        <v>0.001894050972198484</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001699894928732563</v>
+        <v>0.001894050972198484</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001699894928732563</v>
+        <v>0.001871458052208123</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001699894928732563</v>
+        <v>0.001825144198802825</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001603580373691026</v>
+        <v>0.001818974870371537</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001603580373691026</v>
+        <v>0.00178829615041556</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001473645665719267</v>
+        <v>0.00178829615041556</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001473645665719267</v>
+        <v>0.001761116279348639</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001473645665719267</v>
+        <v>0.001673573969191244</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001473645665719267</v>
+        <v>0.001545019654426865</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00144312933007863</v>
+        <v>0.001545019654426865</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001412485511484536</v>
+        <v>0.001545019654426865</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001412485511484536</v>
+        <v>0.001544992752320258</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001412485511484536</v>
+        <v>0.00153092803053124</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2279787063598633</v>
+        <v>0.2138075828552246</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>79.34028805824892</v>
+        <v>76.60816520298613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003035483294744112</v>
+        <v>0.003154521551819769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002528000326002588</v>
+        <v>0.002448038540366686</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002402148691352492</v>
+        <v>0.00210534407484548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00216041270560955</v>
+        <v>0.00210534407484548</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002060923576172336</v>
+        <v>0.001993402778122993</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002012317209148881</v>
+        <v>0.001993402778122993</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002012317209148881</v>
+        <v>0.001908239188164655</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002008759685352975</v>
+        <v>0.001908239188164655</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001993301888510173</v>
+        <v>0.001892791752908952</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001908760052764455</v>
+        <v>0.001812644877832302</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001823779911966753</v>
+        <v>0.001774093044534052</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001820049383514365</v>
+        <v>0.001758486381944426</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00177196925162267</v>
+        <v>0.001628709542550793</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001682825462446265</v>
+        <v>0.001628709542550793</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001682825462446265</v>
+        <v>0.001605416923664617</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001668678568476734</v>
+        <v>0.001572818368508892</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001599994302957063</v>
+        <v>0.001553027808574173</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001595808994886866</v>
+        <v>0.001536364285581873</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001546594309127659</v>
+        <v>0.001519335049124492</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001546594309127659</v>
+        <v>0.001493336553664447</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2186121940612793</v>
+        <v>0.2248187065124512</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>75.11403528732444</v>
+        <v>76.05203231859741</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003097369681391323</v>
+        <v>0.003154521551819769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00238174072426514</v>
+        <v>0.002570832371685492</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002228340860369888</v>
+        <v>0.002252453466438039</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002168355403716125</v>
+        <v>0.002120590710439064</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001957628445358039</v>
+        <v>0.001947824114868303</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001957628445358039</v>
+        <v>0.001947824114868303</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001957628445358039</v>
+        <v>0.001921417796391459</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001915021405841374</v>
+        <v>0.001780988954615381</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001801238871660308</v>
+        <v>0.001780988954615381</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001709392361681381</v>
+        <v>0.001756091207802523</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001675169299338187</v>
+        <v>0.001703139096069023</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00162959141755847</v>
+        <v>0.001699862849928272</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001605878705124116</v>
+        <v>0.001624770185480316</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001588290411986959</v>
+        <v>0.001624770185480316</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001586987584902359</v>
+        <v>0.001612089265580467</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001559621777210942</v>
+        <v>0.001612089265580467</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001542918229635092</v>
+        <v>0.001559986288057526</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001534084970785593</v>
+        <v>0.001537243009684549</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001473620896997469</v>
+        <v>0.001499178989643662</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001464211214177864</v>
+        <v>0.001482495756697805</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215461254119873</v>
+        <v>0.2432901859283447</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>74.56383316236315</v>
+        <v>74.22437339502721</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003016971107671137</v>
+        <v>0.003154521551819769</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002525194103601681</v>
+        <v>0.002623308732567855</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002089846063878269</v>
+        <v>0.002307739549751576</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002089846063878269</v>
+        <v>0.002186604467092835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002089846063878269</v>
+        <v>0.002090644353823639</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002067362965533452</v>
+        <v>0.002090644353823639</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001955888149629517</v>
+        <v>0.001974019526614637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001955888149629517</v>
+        <v>0.001913523822662519</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001778342747329411</v>
+        <v>0.001906488191992335</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001778342747329411</v>
+        <v>0.001833016994224541</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001675785825636584</v>
+        <v>0.001726218639272822</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001675785825636584</v>
+        <v>0.001686316111514691</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001563039883941834</v>
+        <v>0.001630476189793359</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00152303212047145</v>
+        <v>0.001593644828524943</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00152303212047145</v>
+        <v>0.001539268788906555</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001521572391457776</v>
+        <v>0.001539268788906555</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001507308748318003</v>
+        <v>0.001505352392207171</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001470288184108297</v>
+        <v>0.001491374766002608</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001463250446451521</v>
+        <v>0.001452453856487749</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001453486026556786</v>
+        <v>0.001446868877096047</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_05_simulated/details.xlsx
+++ b/result/gr25_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2176170349121094</v>
+        <v>0.5049972534179688</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>74.54980530067041</v>
+        <v>109.0979712069511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003124110796206647</v>
+        <v>0.004056021945133336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002501771280629178</v>
+        <v>0.003174990572092158</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002371583497738418</v>
+        <v>0.00289868642178024</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002190485478716327</v>
+        <v>0.002752399711127126</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002190485478716327</v>
+        <v>0.002752399711127126</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002082988396314586</v>
+        <v>0.00263654202077507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002065289485462057</v>
+        <v>0.002605533143348552</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002065289485462057</v>
+        <v>0.002515283366239146</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002065289485462057</v>
+        <v>0.002436642529629436</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001943652715824293</v>
+        <v>0.002299545719419554</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001943652715824293</v>
+        <v>0.002295255363988849</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001885223026931721</v>
+        <v>0.002295255363988849</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001773839022968643</v>
+        <v>0.002257737240391057</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001637779492893455</v>
+        <v>0.002223139801280851</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001615034114461364</v>
+        <v>0.002171425944798492</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001559535802326531</v>
+        <v>0.002171425944798492</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001530722176329056</v>
+        <v>0.002171425944798492</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001489872629669288</v>
+        <v>0.002146709201854029</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001476237711573956</v>
+        <v>0.002128931898614415</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001453212578960437</v>
+        <v>0.002126666105398657</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2034707069396973</v>
+        <v>0.3930010795593262</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77.47709094679522</v>
+        <v>109.7886991023606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003119161324487111</v>
+        <v>0.003879546177076297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002614634180354116</v>
+        <v>0.003185387997732425</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002207262044267145</v>
+        <v>0.003185387997732425</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00215950341019966</v>
+        <v>0.003013914824927974</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002123073436809416</v>
+        <v>0.002878521169169585</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001812903825000752</v>
+        <v>0.002716485241637899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001812903825000752</v>
+        <v>0.002567788796163209</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001812903825000752</v>
+        <v>0.002453647407975957</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001812903825000752</v>
+        <v>0.002453647407975957</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001781644122554362</v>
+        <v>0.002424460771586704</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001759730198981889</v>
+        <v>0.002365908120050786</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001682123083133228</v>
+        <v>0.002322238994612158</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001665349034886455</v>
+        <v>0.002306683638556468</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001630174913366858</v>
+        <v>0.002246189554539119</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001559890766084226</v>
+        <v>0.002238091579048934</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001559890766084226</v>
+        <v>0.002227069722937256</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001559890766084226</v>
+        <v>0.002187058597320293</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001540701445962988</v>
+        <v>0.002165339396188927</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001524158263710297</v>
+        <v>0.002160262283776259</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001510274677325443</v>
+        <v>0.002140130586790655</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2069470882415771</v>
+        <v>0.3709585666656494</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.94497918227353</v>
+        <v>107.8352910095036</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003154521551819769</v>
+        <v>0.00410297909976543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002546079571777659</v>
+        <v>0.003194297563566305</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002515459946799986</v>
+        <v>0.003035415894435353</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002277736284254095</v>
+        <v>0.002981810686580881</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002111207500557925</v>
+        <v>0.002790133411989776</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002111207500557925</v>
+        <v>0.002788073239641737</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002031484973807214</v>
+        <v>0.002788073239641737</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001923826695350917</v>
+        <v>0.002547773169650989</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001905164871156325</v>
+        <v>0.002477368537889262</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001880209174435409</v>
+        <v>0.002477044301649194</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001753232597861922</v>
+        <v>0.002417902520391948</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001753232597861922</v>
+        <v>0.002302179009498591</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001658618783071838</v>
+        <v>0.002247334813035631</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001624584513387974</v>
+        <v>0.002191282436098923</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001610028858849475</v>
+        <v>0.002191282436098923</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001610028858849475</v>
+        <v>0.002191282436098923</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001588022233833175</v>
+        <v>0.002175117926101938</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001530149233407194</v>
+        <v>0.002149627195426023</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001530149233407194</v>
+        <v>0.002102052456325606</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001519395305697339</v>
+        <v>0.002102052456325606</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2263250350952148</v>
+        <v>0.3780362606048584</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>75.54254521028088</v>
+        <v>110.4816627382042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003055602095804392</v>
+        <v>0.003917291961539131</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002548989490530578</v>
+        <v>0.003198531569195744</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002429329037792827</v>
+        <v>0.00304435214499877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002134699443208073</v>
+        <v>0.00292316521416381</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001998537836782658</v>
+        <v>0.002766823730599446</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001998537836782658</v>
+        <v>0.002577130377100231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001998537836782658</v>
+        <v>0.002577130377100231</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001693041315815505</v>
+        <v>0.002510442361909637</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001693041315815505</v>
+        <v>0.002510442361909637</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001693041315815505</v>
+        <v>0.002510442361909637</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001693041315815505</v>
+        <v>0.002421795447260709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001670435300451888</v>
+        <v>0.002421795447260709</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001617809075837426</v>
+        <v>0.0023116567736373</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001617809075837426</v>
+        <v>0.002267157208067221</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001590715522267599</v>
+        <v>0.002211449358321728</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001556132530445237</v>
+        <v>0.002197362022840276</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001518729963093305</v>
+        <v>0.002190676528939964</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001517020222946816</v>
+        <v>0.002155051771358941</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00148429059636328</v>
+        <v>0.002155051771358941</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001472564234118535</v>
+        <v>0.002153638649867529</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1933751106262207</v>
+        <v>0.4140205383300781</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>71.59786819917099</v>
+        <v>106.4137722306659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003065921266638414</v>
+        <v>0.003943007570197137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002681937696558773</v>
+        <v>0.003178116674314109</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002418377080786641</v>
+        <v>0.002961732077310762</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002299187119463108</v>
+        <v>0.00273004666891374</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002094839229990136</v>
+        <v>0.00268267035201016</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002094839229990136</v>
+        <v>0.002588457117764729</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001947447562156314</v>
+        <v>0.002392056897706832</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001947447562156314</v>
+        <v>0.002382628539213846</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001772963399753687</v>
+        <v>0.002311428332587562</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001634807895201869</v>
+        <v>0.002311428332587562</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001634807895201869</v>
+        <v>0.002311428332587562</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001634807895201869</v>
+        <v>0.002288003357419134</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00149951857504386</v>
+        <v>0.002196440477209957</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00149951857504386</v>
+        <v>0.002196440477209957</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00149951857504386</v>
+        <v>0.002196440477209957</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00149951857504386</v>
+        <v>0.002142897139282686</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001487233277658041</v>
+        <v>0.002099456016182378</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001466875879081268</v>
+        <v>0.002099456016182378</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00141574826245791</v>
+        <v>0.002084485069870205</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001395669945402943</v>
+        <v>0.002074342538609472</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2256424427032471</v>
+        <v>0.4459996223449707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>80.14539883980251</v>
+        <v>111.32206186652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00299220981746574</v>
+        <v>0.004030069430481654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002656296134397694</v>
+        <v>0.003310248356602565</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002497502014548356</v>
+        <v>0.003150145755943382</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002326162035366549</v>
+        <v>0.003074561023184581</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002326162035366549</v>
+        <v>0.002882612388612686</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002118839845021518</v>
+        <v>0.002717489937048134</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002078752228266076</v>
+        <v>0.002469547004782736</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00205060481672188</v>
+        <v>0.002469547004782736</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001950412159824454</v>
+        <v>0.002469547004782736</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001856462944413412</v>
+        <v>0.002447003739687123</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001765420526254872</v>
+        <v>0.002447003739687123</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001765420526254872</v>
+        <v>0.002435714049703983</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001680878513559957</v>
+        <v>0.002300014608843351</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001680878513559957</v>
+        <v>0.002300014608843351</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001629120250346607</v>
+        <v>0.002300014608843351</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001609288559614116</v>
+        <v>0.002268460366018334</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001603098100308502</v>
+        <v>0.002211665355280877</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001585795928309295</v>
+        <v>0.002210010818828159</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001562288476409405</v>
+        <v>0.002181766782191171</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001562288476409405</v>
+        <v>0.002170020699152436</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1923003196716309</v>
+        <v>0.4430015087127686</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>78.53660796625263</v>
+        <v>104.6899488172148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003009124105867431</v>
+        <v>0.003834725990376678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002388540814134716</v>
+        <v>0.003289797778444041</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002388540814134716</v>
+        <v>0.003110492103311776</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002173010236696299</v>
+        <v>0.002875454817562622</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002137537169354132</v>
+        <v>0.002687072622401896</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002056321753901316</v>
+        <v>0.002498126010236056</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001894050972198484</v>
+        <v>0.002485042566229815</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001894050972198484</v>
+        <v>0.002485042566229815</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001871458052208123</v>
+        <v>0.002378059387569148</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001825144198802825</v>
+        <v>0.002378059387569148</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001818974870371537</v>
+        <v>0.002329469927616456</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00178829615041556</v>
+        <v>0.00225166085409277</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00178829615041556</v>
+        <v>0.002238719213278654</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001761116279348639</v>
+        <v>0.002226332401948779</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001673573969191244</v>
+        <v>0.002206092285229607</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001545019654426865</v>
+        <v>0.002196445557850747</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001545019654426865</v>
+        <v>0.002133707322395599</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001545019654426865</v>
+        <v>0.002098147596273823</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001544992752320258</v>
+        <v>0.002074625362361155</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.00153092803053124</v>
+        <v>0.002040739743025629</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2138075828552246</v>
+        <v>0.4909989833831787</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>76.60816520298613</v>
+        <v>106.1216559800596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003154521551819769</v>
+        <v>0.003889254253717453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002448038540366686</v>
+        <v>0.003014551114137519</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00210534407484548</v>
+        <v>0.002616799115975948</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00210534407484548</v>
+        <v>0.002616799115975948</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001993402778122993</v>
+        <v>0.002599655513651002</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001993402778122993</v>
+        <v>0.002599655513651002</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001908239188164655</v>
+        <v>0.002467933114314812</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001908239188164655</v>
+        <v>0.002397970878992622</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001892791752908952</v>
+        <v>0.002397970878992622</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001812644877832302</v>
+        <v>0.002397970878992622</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001774093044534052</v>
+        <v>0.0023940841595003</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001758486381944426</v>
+        <v>0.002307245921766953</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001628709542550793</v>
+        <v>0.002245185974784371</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001628709542550793</v>
+        <v>0.002245185974784371</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001605416923664617</v>
+        <v>0.002245185974784371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001572818368508892</v>
+        <v>0.002197624923420967</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001553027808574173</v>
+        <v>0.002144008308945271</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001536364285581873</v>
+        <v>0.002112538484783031</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001519335049124492</v>
+        <v>0.00209762301144626</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001493336553664447</v>
+        <v>0.00206864826471851</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2248187065124512</v>
+        <v>0.3689980506896973</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>76.05203231859741</v>
+        <v>111.7733120226076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003154521551819769</v>
+        <v>0.00410297909976543</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002570832371685492</v>
+        <v>0.00350397393517325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002252453466438039</v>
+        <v>0.00307224534411933</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002120590710439064</v>
+        <v>0.003012399099695675</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001947824114868303</v>
+        <v>0.002933097295829754</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001947824114868303</v>
+        <v>0.002915881721768896</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001921417796391459</v>
+        <v>0.002698718913146217</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001780988954615381</v>
+        <v>0.002574977175271922</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001780988954615381</v>
+        <v>0.002574977175271922</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001756091207802523</v>
+        <v>0.002518827394667479</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001703139096069023</v>
+        <v>0.002446815587190231</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001699862849928272</v>
+        <v>0.002446815587190231</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001624770185480316</v>
+        <v>0.002328634095510031</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001624770185480316</v>
+        <v>0.002328634095510031</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001612089265580467</v>
+        <v>0.002293680002360338</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001612089265580467</v>
+        <v>0.002267667064092304</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001559986288057526</v>
+        <v>0.002240709441077384</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001537243009684549</v>
+        <v>0.002229161687121137</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001499178989643662</v>
+        <v>0.002192257025564604</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001482495756697805</v>
+        <v>0.002178816998491375</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2432901859283447</v>
+        <v>0.3689644336700439</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>74.22437339502721</v>
+        <v>109.5704456930816</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003154521551819769</v>
+        <v>0.003999839555189039</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002623308732567855</v>
+        <v>0.003306768277730246</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002307739549751576</v>
+        <v>0.002935906117089716</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002186604467092835</v>
+        <v>0.002775500427575294</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002090644353823639</v>
+        <v>0.002674540227347458</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002090644353823639</v>
+        <v>0.002674540227347458</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001974019526614637</v>
+        <v>0.002629500612150466</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001913523822662519</v>
+        <v>0.002629500612150466</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001906488191992335</v>
+        <v>0.002525496840010917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001833016994224541</v>
+        <v>0.00241550040729174</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001726218639272822</v>
+        <v>0.002346541923967417</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001686316111514691</v>
+        <v>0.002346541923967417</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001630476189793359</v>
+        <v>0.002278841215346062</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001593644828524943</v>
+        <v>0.002267045670942911</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001539268788906555</v>
+        <v>0.002199828668032678</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001539268788906555</v>
+        <v>0.002199828668032678</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001505352392207171</v>
+        <v>0.002199828668032678</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001491374766002608</v>
+        <v>0.002174443175264248</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001452453856487749</v>
+        <v>0.002152845229098304</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001446868877096047</v>
+        <v>0.002135876134368063</v>
       </c>
     </row>
   </sheetData>
